--- a/results/ScenarioComparison/ValuesFPV.xlsx
+++ b/results/ScenarioComparison/ValuesFPV.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MaxGenerationShare" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MaxCapacityShare" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TotalGeneration" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MaxCapacity" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MaxGeneration" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Onset" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +23,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +51,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +441,890 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.02795783208154342</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02045970926256811</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03968361786593005</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02058344681001422</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01615318971072293</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04787265379222585</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.04000589767533298</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05278801243682285</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04912137613998665</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1078156650911546</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05905659200099831</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.04650297619047619</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04534332597573704</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1040405489408502</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.06271282040569051</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1558.9262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>634.9111999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>459.3488</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>464.6661999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1389.367</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>616.3507999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>319.9799</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>453.0362999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.27000000000164</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.650000000000044</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.77400000000154</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.846000000000059</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>17.37500000000019</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.650000000000054</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10.87900000000006</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.846000000000091</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>103.6703</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18.5604</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>61.2002</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>26.6479</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.0962</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>18.5604</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40.6261</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>24.4711</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_1.5_ENB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TEMBA_2.0_ENB</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EAPP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>EG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ET</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>